--- a/data/nzd0110/nzd0110.xlsx
+++ b/data/nzd0110/nzd0110.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11844,6 +11844,45 @@
       <c r="K311" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>390.72</v>
+      </c>
+      <c r="C312" t="n">
+        <v>375.430909090909</v>
+      </c>
+      <c r="D312" t="n">
+        <v>382.0709090909091</v>
+      </c>
+      <c r="E312" t="n">
+        <v>380.46</v>
+      </c>
+      <c r="F312" t="n">
+        <v>377.5009090909091</v>
+      </c>
+      <c r="G312" t="n">
+        <v>376.55</v>
+      </c>
+      <c r="H312" t="n">
+        <v>379.02</v>
+      </c>
+      <c r="I312" t="n">
+        <v>382.08</v>
+      </c>
+      <c r="J312" t="n">
+        <v>394.43</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11858,7 +11897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16176,6 +16215,26 @@
       </c>
       <c r="B431" t="n">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>-0.27</v>
       </c>
     </row>
   </sheetData>
@@ -16344,28 +16403,28 @@
         <v>0.0641</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2320930836886668</v>
+        <v>0.2306645976902972</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K2" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04310003444024246</v>
+        <v>0.04290526789372118</v>
       </c>
       <c r="M2" t="n">
-        <v>6.186345303652152</v>
+        <v>6.170326733431453</v>
       </c>
       <c r="N2" t="n">
-        <v>62.73886217035939</v>
+        <v>62.51306727808625</v>
       </c>
       <c r="O2" t="n">
-        <v>7.92078671410608</v>
+        <v>7.906520554459227</v>
       </c>
       <c r="P2" t="n">
-        <v>386.7417114879661</v>
+        <v>386.755852213425</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16421,28 +16480,28 @@
         <v>0.0613</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1641401895303853</v>
+        <v>0.1551607558559158</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K3" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01942663492094754</v>
+        <v>0.01739002943042567</v>
       </c>
       <c r="M3" t="n">
-        <v>6.622336162935614</v>
+        <v>6.637701472011506</v>
       </c>
       <c r="N3" t="n">
-        <v>72.84305002040094</v>
+        <v>73.14340724162619</v>
       </c>
       <c r="O3" t="n">
-        <v>8.534814000340074</v>
+        <v>8.552391901779654</v>
       </c>
       <c r="P3" t="n">
-        <v>383.7244277329457</v>
+        <v>383.812212736859</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16498,28 +16557,28 @@
         <v>0.0602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04965979299849595</v>
+        <v>0.0441551171863161</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K4" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001649027250071655</v>
+        <v>0.001310635061351761</v>
       </c>
       <c r="M4" t="n">
-        <v>6.498263974042512</v>
+        <v>6.501723599261155</v>
       </c>
       <c r="N4" t="n">
-        <v>79.46383120795495</v>
+        <v>79.38313398932641</v>
       </c>
       <c r="O4" t="n">
-        <v>8.914248774179176</v>
+        <v>8.909721319397505</v>
       </c>
       <c r="P4" t="n">
-        <v>388.4392771595626</v>
+        <v>388.4929904558365</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -16575,28 +16634,28 @@
         <v>0.0635</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0812875108865917</v>
+        <v>0.0757783327045512</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K5" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00533778878657698</v>
+        <v>0.004661060849767584</v>
       </c>
       <c r="M5" t="n">
-        <v>6.155433776970607</v>
+        <v>6.158542200284554</v>
       </c>
       <c r="N5" t="n">
-        <v>65.37829531219901</v>
+        <v>65.36161185983806</v>
       </c>
       <c r="O5" t="n">
-        <v>8.085684591436832</v>
+        <v>8.084652859575238</v>
       </c>
       <c r="P5" t="n">
-        <v>386.234531409684</v>
+        <v>386.2883435832084</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -16652,28 +16711,28 @@
         <v>0.058</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04638439772288808</v>
+        <v>-0.05202301236378489</v>
       </c>
       <c r="J6" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K6" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001975631980684067</v>
+        <v>0.00249397228488224</v>
       </c>
       <c r="M6" t="n">
-        <v>5.917807404271017</v>
+        <v>5.928044765530687</v>
       </c>
       <c r="N6" t="n">
-        <v>57.13611476649125</v>
+        <v>57.1415550075497</v>
       </c>
       <c r="O6" t="n">
-        <v>7.558843480750958</v>
+        <v>7.559203331538959</v>
       </c>
       <c r="P6" t="n">
-        <v>386.3772083560373</v>
+        <v>386.4322778319223</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -16729,28 +16788,28 @@
         <v>0.0411</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06940793553966985</v>
+        <v>0.06064868178995746</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K7" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003834859228822429</v>
+        <v>0.002932092465252611</v>
       </c>
       <c r="M7" t="n">
-        <v>6.344372800400188</v>
+        <v>6.360588057288886</v>
       </c>
       <c r="N7" t="n">
-        <v>66.10870486674266</v>
+        <v>66.36765180687411</v>
       </c>
       <c r="O7" t="n">
-        <v>8.130725974151549</v>
+        <v>8.146634385246101</v>
       </c>
       <c r="P7" t="n">
-        <v>386.5451380862513</v>
+        <v>386.6296908791355</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -16806,28 +16865,28 @@
         <v>0.0542</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2418001815512056</v>
+        <v>-0.246467025689368</v>
       </c>
       <c r="J8" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K8" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05613109923809734</v>
+        <v>0.05850458022595306</v>
       </c>
       <c r="M8" t="n">
-        <v>5.628844922174713</v>
+        <v>5.633614094459209</v>
       </c>
       <c r="N8" t="n">
-        <v>51.23827157930428</v>
+        <v>51.18223338803983</v>
       </c>
       <c r="O8" t="n">
-        <v>7.158091336334309</v>
+        <v>7.154175940528708</v>
       </c>
       <c r="P8" t="n">
-        <v>391.2071331879642</v>
+        <v>391.2524585060755</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -16883,28 +16942,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2582898318517294</v>
+        <v>-0.2649835549056064</v>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K9" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06008725322341257</v>
+        <v>0.06322398755082825</v>
       </c>
       <c r="M9" t="n">
-        <v>5.363160172459676</v>
+        <v>5.380012146349269</v>
       </c>
       <c r="N9" t="n">
-        <v>53.94656622183097</v>
+        <v>54.02795391034601</v>
       </c>
       <c r="O9" t="n">
-        <v>7.344832620409465</v>
+        <v>7.35037100494567</v>
       </c>
       <c r="P9" t="n">
-        <v>397.3956989974534</v>
+        <v>397.4610672195827</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -16960,28 +17019,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3936857727570267</v>
+        <v>-0.3940236013935642</v>
       </c>
       <c r="J10" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K10" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1170915753362374</v>
+        <v>0.1181683890963973</v>
       </c>
       <c r="M10" t="n">
-        <v>5.876303290578942</v>
+        <v>5.855764082324169</v>
       </c>
       <c r="N10" t="n">
-        <v>58.96419730617772</v>
+        <v>58.74235539022036</v>
       </c>
       <c r="O10" t="n">
-        <v>7.678814837341614</v>
+        <v>7.664356162798044</v>
       </c>
       <c r="P10" t="n">
-        <v>404.8288573567778</v>
+        <v>404.8321935180404</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -17018,7 +17077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33281,6 +33340,63 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-36.04658492378678,174.54637779878686</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-36.04702610164707,174.54710998258102</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-36.047256653706974,174.54794480978384</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-36.04747963734859,174.54877987847715</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-36.047677001441244,174.54963574662216</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-36.04783836352938,174.55050458127823</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-36.04793046296711,174.551385809762</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>-36.04798415479184,174.55225391299</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>-36.04781773735704,174.55311525343495</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0110/nzd0110.xlsx
+++ b/data/nzd0110/nzd0110.xlsx
@@ -16248,7 +16248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16339,35 +16339,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16426,27 +16431,28 @@
       <c r="P2" t="n">
         <v>386.755852213425</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.54451858234063 -36.049766705947704, 174.54890827953466 -36.04225392446871)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5445185823406</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.0497667059477</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.5489082795347</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.04225392446871</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5467134309376</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.04601031520821</v>
       </c>
     </row>
@@ -16503,27 +16509,28 @@
       <c r="P3" t="n">
         <v>383.812212736859</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.54539980017347 -36.0501120148719, 174.54960194388013 -36.04252905860584)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5453998001735</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.0501120148719</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.5496019438801</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.04252905860584</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5475008720268</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.04632053673887</v>
       </c>
     </row>
@@ -16580,27 +16587,28 @@
       <c r="P4" t="n">
         <v>388.4929904558365</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.54650829179536 -36.05049693461205, 174.54997636801647 -36.04267370618895)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5465082917954</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.05049693461205</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.5499763680165</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.04267370618895</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5482423299059</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.0465853204005</v>
       </c>
     </row>
@@ -16657,27 +16665,28 @@
       <c r="P5" t="n">
         <v>386.2883435832084</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.54769575721386 -36.05079406031686, 174.5503239464617 -36.04275857433963)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.5476957572139</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.05079406031686</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.5503239464617</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.04275857433963</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.5490098518378</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.04677631732824</v>
       </c>
     </row>
@@ -16734,27 +16743,28 @@
       <c r="P6" t="n">
         <v>386.4322778319223</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.54873316737857 -36.05099980403699, 174.5509383343216 -36.04288111429558)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.5487331673786</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.05099980403699</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.5509383343216</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.04288111429558</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.5498357508501</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.04694045916629</v>
       </c>
     </row>
@@ -16811,27 +16821,28 @@
       <c r="P7" t="n">
         <v>386.6296908791355</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.54977128738952 -36.051179827089776, 174.55156733898895 -36.04299513485427)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.5497712873895</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.05117982708978</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.5515673389889</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.04299513485427</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.5506693131892</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.04708748097202</v>
       </c>
     </row>
@@ -16888,27 +16899,28 @@
       <c r="P8" t="n">
         <v>391.2524585060755</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.55085652104063 -36.05131968977072, 174.55214442735857 -36.04307230764924)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.5508565210406</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.05131968977072</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.5521444273586</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.04307230764924</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.5515004741996</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.04719599870998</v>
       </c>
     </row>
@@ -16965,27 +16977,28 @@
       <c r="P9" t="n">
         <v>397.4610672195827</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.55222367916446 -36.05142802072693, 174.55229666432965 -36.043115017305034)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.5522236791645</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.05142802072693</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.5522966643296</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.04311501730503</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.552260171747</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.04727151901598</v>
       </c>
     </row>
@@ -17042,27 +17055,28 @@
       <c r="P10" t="n">
         <v>404.8321935180404</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.55350339135433 -36.051359009370124, 174.55259587125767 -36.043078439351724)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.5535033913543</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.05135900937012</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.5525958712577</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.04307843935172</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.553049631306</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.04721872436092</v>
       </c>
     </row>

--- a/data/nzd0110/nzd0110.xlsx
+++ b/data/nzd0110/nzd0110.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K312"/>
+  <dimension ref="A1:K314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11881,6 +11881,84 @@
         <v>394.43</v>
       </c>
       <c r="K312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>383.4533333333333</v>
+      </c>
+      <c r="C313" t="n">
+        <v>381.3263636363636</v>
+      </c>
+      <c r="D313" t="n">
+        <v>386.8263636363636</v>
+      </c>
+      <c r="E313" t="n">
+        <v>385.4133333333333</v>
+      </c>
+      <c r="F313" t="n">
+        <v>379.5563636363637</v>
+      </c>
+      <c r="G313" t="n">
+        <v>384.99</v>
+      </c>
+      <c r="H313" t="n">
+        <v>383.95</v>
+      </c>
+      <c r="I313" t="n">
+        <v>386.51</v>
+      </c>
+      <c r="J313" t="n">
+        <v>390.09</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>373.4766666666667</v>
+      </c>
+      <c r="C314" t="n">
+        <v>373.5963636363636</v>
+      </c>
+      <c r="D314" t="n">
+        <v>378.3263636363636</v>
+      </c>
+      <c r="E314" t="n">
+        <v>373.1366666666667</v>
+      </c>
+      <c r="F314" t="n">
+        <v>372.9063636363636</v>
+      </c>
+      <c r="G314" t="n">
+        <v>376.96</v>
+      </c>
+      <c r="H314" t="n">
+        <v>374.42</v>
+      </c>
+      <c r="I314" t="n">
+        <v>383.74</v>
+      </c>
+      <c r="J314" t="n">
+        <v>385.72</v>
+      </c>
+      <c r="K314" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -11897,7 +11975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B433"/>
+  <dimension ref="A1:B435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16235,6 +16313,26 @@
       </c>
       <c r="B433" t="n">
         <v>-0.27</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -16408,28 +16506,28 @@
         <v>0.0641</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2306645976902972</v>
+        <v>0.2092420820230523</v>
       </c>
       <c r="J2" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04290526789372118</v>
+        <v>0.03521604345040985</v>
       </c>
       <c r="M2" t="n">
-        <v>6.170326733431453</v>
+        <v>6.236684407489067</v>
       </c>
       <c r="N2" t="n">
-        <v>62.51306727808625</v>
+        <v>63.72076003495711</v>
       </c>
       <c r="O2" t="n">
-        <v>7.906520554459227</v>
+        <v>7.982528423686139</v>
       </c>
       <c r="P2" t="n">
-        <v>386.755852213425</v>
+        <v>386.9709789743051</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16486,28 +16584,28 @@
         <v>0.0613</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1551607558559158</v>
+        <v>0.1401847680042058</v>
       </c>
       <c r="J3" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K3" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01739002943042567</v>
+        <v>0.01429009903840051</v>
       </c>
       <c r="M3" t="n">
-        <v>6.637701472011506</v>
+        <v>6.656075469076837</v>
       </c>
       <c r="N3" t="n">
-        <v>73.14340724162619</v>
+        <v>73.48458689759462</v>
       </c>
       <c r="O3" t="n">
-        <v>8.552391901779654</v>
+        <v>8.572315142223518</v>
       </c>
       <c r="P3" t="n">
-        <v>383.812212736859</v>
+        <v>383.9607953652337</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16564,28 +16662,28 @@
         <v>0.0602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0441551171863161</v>
+        <v>0.03392607915921158</v>
       </c>
       <c r="J4" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K4" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001310635061351761</v>
+        <v>0.0007816147387289529</v>
       </c>
       <c r="M4" t="n">
-        <v>6.501723599261155</v>
+        <v>6.503290150891695</v>
       </c>
       <c r="N4" t="n">
-        <v>79.38313398932641</v>
+        <v>79.28993488182148</v>
       </c>
       <c r="O4" t="n">
-        <v>8.909721319397505</v>
+        <v>8.904489591314119</v>
       </c>
       <c r="P4" t="n">
-        <v>388.4929904558365</v>
+        <v>388.5942631183154</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16642,28 +16740,28 @@
         <v>0.0635</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0757783327045512</v>
+        <v>0.06310683515604761</v>
       </c>
       <c r="J5" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K5" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004661060849767584</v>
+        <v>0.003246123544966117</v>
       </c>
       <c r="M5" t="n">
-        <v>6.158542200284554</v>
+        <v>6.17270909246445</v>
       </c>
       <c r="N5" t="n">
-        <v>65.36161185983806</v>
+        <v>65.72156666284705</v>
       </c>
       <c r="O5" t="n">
-        <v>8.084652859575238</v>
+        <v>8.106883905844899</v>
       </c>
       <c r="P5" t="n">
-        <v>386.2883435832084</v>
+        <v>386.4139233883686</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16720,28 +16818,28 @@
         <v>0.058</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05202301236378489</v>
+        <v>-0.06506690038950651</v>
       </c>
       <c r="J6" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K6" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00249397228488224</v>
+        <v>0.003915282344684745</v>
       </c>
       <c r="M6" t="n">
-        <v>5.928044765530687</v>
+        <v>5.956764106159749</v>
       </c>
       <c r="N6" t="n">
-        <v>57.1415550075497</v>
+        <v>57.36414235321075</v>
       </c>
       <c r="O6" t="n">
-        <v>7.559203331538959</v>
+        <v>7.573911958374665</v>
       </c>
       <c r="P6" t="n">
-        <v>386.4322778319223</v>
+        <v>386.5614611864701</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16798,28 +16896,28 @@
         <v>0.0411</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06064868178995746</v>
+        <v>0.04986364970471193</v>
       </c>
       <c r="J7" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K7" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002932092465252611</v>
+        <v>0.002002338880053411</v>
       </c>
       <c r="M7" t="n">
-        <v>6.360588057288886</v>
+        <v>6.361286455557395</v>
       </c>
       <c r="N7" t="n">
-        <v>66.36765180687411</v>
+        <v>66.37132140706397</v>
       </c>
       <c r="O7" t="n">
-        <v>8.146634385246101</v>
+        <v>8.146859603986309</v>
       </c>
       <c r="P7" t="n">
-        <v>386.6296908791355</v>
+        <v>386.7352513841079</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16876,28 +16974,28 @@
         <v>0.0542</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.246467025689368</v>
+        <v>-0.2553505942803391</v>
       </c>
       <c r="J8" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K8" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05850458022595306</v>
+        <v>0.06307233795867562</v>
       </c>
       <c r="M8" t="n">
-        <v>5.633614094459209</v>
+        <v>5.639800538799575</v>
       </c>
       <c r="N8" t="n">
-        <v>51.18223338803983</v>
+        <v>51.21002684631252</v>
       </c>
       <c r="O8" t="n">
-        <v>7.154175940528708</v>
+        <v>7.156118140885638</v>
       </c>
       <c r="P8" t="n">
-        <v>391.2524585060755</v>
+        <v>391.3399275654223</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16954,28 +17052,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2649835549056064</v>
+        <v>-0.2734697060241549</v>
       </c>
       <c r="J9" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K9" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06322398755082825</v>
+        <v>0.06786086808523739</v>
       </c>
       <c r="M9" t="n">
-        <v>5.380012146349269</v>
+        <v>5.385941103775656</v>
       </c>
       <c r="N9" t="n">
-        <v>54.02795391034601</v>
+        <v>53.86577357945461</v>
       </c>
       <c r="O9" t="n">
-        <v>7.35037100494567</v>
+        <v>7.339330594778696</v>
       </c>
       <c r="P9" t="n">
-        <v>397.4610672195827</v>
+        <v>397.5450488858353</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17032,28 +17130,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3940236013935642</v>
+        <v>-0.4049679849194598</v>
       </c>
       <c r="J10" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K10" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1181683890963973</v>
+        <v>0.1252465161699878</v>
       </c>
       <c r="M10" t="n">
-        <v>5.855764082324169</v>
+        <v>5.863239735384654</v>
       </c>
       <c r="N10" t="n">
-        <v>58.74235539022036</v>
+        <v>58.67817992469318</v>
       </c>
       <c r="O10" t="n">
-        <v>7.664356162798044</v>
+        <v>7.660168400544023</v>
       </c>
       <c r="P10" t="n">
-        <v>404.8321935180404</v>
+        <v>404.9416708667173</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17091,7 +17189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K312"/>
+  <dimension ref="A1:K314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33411,6 +33509,120 @@
         </is>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-36.046644099273045,174.54634322214503</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-36.04697764285321,174.5471368368256</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-36.04721632337359,174.54796268872357</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-36.047436485728895,174.54879399243887</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-36.047658909096356,174.54964066088127</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-36.04776346783689,174.55052101669136</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-36.04788637849712,174.55139269407766</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>-36.04794422511677,174.55225426355128</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>-36.04785670277397,174.55311952398066</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-36.04672534340031,174.54629575055404</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-36.047041181036214,174.54710162608018</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-36.04728841066245,174.54793073151632</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-36.04754343553444,174.5487590114424</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-36.0477174431526,174.54962476180006</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-36.047834725231574,174.55050537968168</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-36.047971596549196,174.5513793862565</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-36.04796919243055,174.5522540443515</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>-36.047895937536595,174.55312382405123</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0110/nzd0110.xlsx
+++ b/data/nzd0110/nzd0110.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K314"/>
+  <dimension ref="A1:K317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11961,6 +11961,117 @@
       <c r="K314" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="n">
+        <v>377.3466666666667</v>
+      </c>
+      <c r="F315" t="n">
+        <v>383.5263636363636</v>
+      </c>
+      <c r="G315" t="n">
+        <v>380.84</v>
+      </c>
+      <c r="H315" t="n">
+        <v>382.29</v>
+      </c>
+      <c r="I315" t="n">
+        <v>385.11</v>
+      </c>
+      <c r="J315" t="n">
+        <v>366.56</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>393.3066666666667</v>
+      </c>
+      <c r="C316" t="n">
+        <v>392.2245454545454</v>
+      </c>
+      <c r="D316" t="n">
+        <v>394.4145454545454</v>
+      </c>
+      <c r="E316" t="n">
+        <v>388.0566666666667</v>
+      </c>
+      <c r="F316" t="n">
+        <v>384.2445454545455</v>
+      </c>
+      <c r="G316" t="n">
+        <v>388.05</v>
+      </c>
+      <c r="H316" t="n">
+        <v>391.56</v>
+      </c>
+      <c r="I316" t="n">
+        <v>398.5700000000001</v>
+      </c>
+      <c r="J316" t="n">
+        <v>399.31</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>390.6833333333333</v>
+      </c>
+      <c r="C317" t="n">
+        <v>385.5809090909091</v>
+      </c>
+      <c r="D317" t="n">
+        <v>387.0109090909091</v>
+      </c>
+      <c r="E317" t="n">
+        <v>382.3433333333333</v>
+      </c>
+      <c r="F317" t="n">
+        <v>386.680909090909</v>
+      </c>
+      <c r="G317" t="n">
+        <v>389.93</v>
+      </c>
+      <c r="H317" t="n">
+        <v>384.48</v>
+      </c>
+      <c r="I317" t="n">
+        <v>394.19</v>
+      </c>
+      <c r="J317" t="n">
+        <v>395.03</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11975,7 +12086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B435"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16333,6 +16444,36 @@
       </c>
       <c r="B435" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -16506,28 +16647,28 @@
         <v>0.0641</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2092420820230523</v>
+        <v>0.2086995906870593</v>
       </c>
       <c r="J2" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K2" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03521604345040985</v>
+        <v>0.03557818552721237</v>
       </c>
       <c r="M2" t="n">
-        <v>6.236684407489067</v>
+        <v>6.199822708172141</v>
       </c>
       <c r="N2" t="n">
-        <v>63.72076003495711</v>
+        <v>63.25560673196263</v>
       </c>
       <c r="O2" t="n">
-        <v>7.982528423686139</v>
+        <v>7.953339344700604</v>
       </c>
       <c r="P2" t="n">
-        <v>386.9709789743051</v>
+        <v>386.9764638825105</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16584,28 +16725,28 @@
         <v>0.0613</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1401847680042058</v>
+        <v>0.1420872308314371</v>
       </c>
       <c r="J3" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K3" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01429009903840051</v>
+        <v>0.01488116814672091</v>
       </c>
       <c r="M3" t="n">
-        <v>6.656075469076837</v>
+        <v>6.632454540326905</v>
       </c>
       <c r="N3" t="n">
-        <v>73.48458689759462</v>
+        <v>73.03823421237999</v>
       </c>
       <c r="O3" t="n">
-        <v>8.572315142223518</v>
+        <v>8.546240940459144</v>
       </c>
       <c r="P3" t="n">
-        <v>383.9607953652337</v>
+        <v>383.9418498406371</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16662,28 +16803,28 @@
         <v>0.0602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03392607915921158</v>
+        <v>0.03570348091793944</v>
       </c>
       <c r="J4" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K4" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007816147387289529</v>
+        <v>0.0008779626062831447</v>
       </c>
       <c r="M4" t="n">
-        <v>6.503290150891695</v>
+        <v>6.483409619426808</v>
       </c>
       <c r="N4" t="n">
-        <v>79.28993488182148</v>
+        <v>78.82566910480917</v>
       </c>
       <c r="O4" t="n">
-        <v>8.904489591314119</v>
+        <v>8.878382122031534</v>
       </c>
       <c r="P4" t="n">
-        <v>388.5942631183154</v>
+        <v>388.576608243582</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16740,28 +16881,28 @@
         <v>0.0635</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06310683515604761</v>
+        <v>0.05181842887517948</v>
       </c>
       <c r="J5" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K5" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003246123544966117</v>
+        <v>0.002223831066886062</v>
       </c>
       <c r="M5" t="n">
-        <v>6.17270909246445</v>
+        <v>6.160972528508915</v>
       </c>
       <c r="N5" t="n">
-        <v>65.72156666284705</v>
+        <v>65.53434249853825</v>
       </c>
       <c r="O5" t="n">
-        <v>8.106883905844899</v>
+        <v>8.095328436730547</v>
       </c>
       <c r="P5" t="n">
-        <v>386.4139233883686</v>
+        <v>386.5262368250809</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16818,28 +16959,28 @@
         <v>0.058</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06506690038950651</v>
+        <v>-0.065212049299658</v>
       </c>
       <c r="J6" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K6" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003915282344684745</v>
+        <v>0.004025369755075836</v>
       </c>
       <c r="M6" t="n">
-        <v>5.956764106159749</v>
+        <v>5.906428199099888</v>
       </c>
       <c r="N6" t="n">
-        <v>57.36414235321075</v>
+        <v>56.76700345454506</v>
       </c>
       <c r="O6" t="n">
-        <v>7.573911958374665</v>
+        <v>7.53438806105347</v>
       </c>
       <c r="P6" t="n">
-        <v>386.5614611864701</v>
+        <v>386.5628819221423</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16896,28 +17037,28 @@
         <v>0.0411</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04986364970471193</v>
+        <v>0.04606504749364792</v>
       </c>
       <c r="J7" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K7" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002002338880053411</v>
+        <v>0.001746403281396303</v>
       </c>
       <c r="M7" t="n">
-        <v>6.361286455557395</v>
+        <v>6.323841380667479</v>
       </c>
       <c r="N7" t="n">
-        <v>66.37132140706397</v>
+        <v>65.85051366090009</v>
       </c>
       <c r="O7" t="n">
-        <v>8.146859603986309</v>
+        <v>8.114832941034591</v>
       </c>
       <c r="P7" t="n">
-        <v>386.7352513841079</v>
+        <v>386.7725201080972</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16974,28 +17115,28 @@
         <v>0.0542</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2553505942803391</v>
+        <v>-0.2523238806489906</v>
       </c>
       <c r="J8" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K8" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06307233795867562</v>
+        <v>0.06293370680781341</v>
       </c>
       <c r="M8" t="n">
-        <v>5.639800538799575</v>
+        <v>5.610998825772777</v>
       </c>
       <c r="N8" t="n">
-        <v>51.21002684631252</v>
+        <v>50.83706270718675</v>
       </c>
       <c r="O8" t="n">
-        <v>7.156118140885638</v>
+        <v>7.130011410032017</v>
       </c>
       <c r="P8" t="n">
-        <v>391.3399275654223</v>
+        <v>391.3099922396582</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17052,28 +17193,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2734697060241549</v>
+        <v>-0.2687265510670346</v>
       </c>
       <c r="J9" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K9" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06786086808523739</v>
+        <v>0.06677784423936717</v>
       </c>
       <c r="M9" t="n">
-        <v>5.385941103775656</v>
+        <v>5.386678601967919</v>
       </c>
       <c r="N9" t="n">
-        <v>53.86577357945461</v>
+        <v>53.66917294175707</v>
       </c>
       <c r="O9" t="n">
-        <v>7.339330594778696</v>
+        <v>7.325924715812815</v>
       </c>
       <c r="P9" t="n">
-        <v>397.5450488858353</v>
+        <v>397.4978463762083</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17130,28 +17271,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4049679849194598</v>
+        <v>-0.4225749141635066</v>
       </c>
       <c r="J10" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K10" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1252465161699878</v>
+        <v>0.1321475348609741</v>
       </c>
       <c r="M10" t="n">
-        <v>5.863239735384654</v>
+        <v>5.923204471915085</v>
       </c>
       <c r="N10" t="n">
-        <v>58.67817992469318</v>
+        <v>60.98617758140014</v>
       </c>
       <c r="O10" t="n">
-        <v>7.660168400544023</v>
+        <v>7.809364736097306</v>
       </c>
       <c r="P10" t="n">
-        <v>404.9416708667173</v>
+        <v>405.1182896994869</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17189,7 +17330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K314"/>
+  <dimension ref="A1:K317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33623,6 +33764,165 @@
         </is>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-36.04750675956367,174.54877100737932</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-36.047623964703895,174.5496501525027</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-36.04780029451062,174.55051293530104</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-36.04790122235523,174.55139037603297</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-36.04795684397574,174.55225415276436</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>-36.04806795996812,174.55314267750876</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-36.04656385948301,174.54639010679026</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-36.04688806318993,174.5471864787896</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-36.04715196907808,174.54799121774658</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-36.04741345797965,174.54880152431153</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-36.047617643185596,174.54965186955727</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-36.04773631371082,174.55052697549522</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-36.04781832924322,174.55140332076655</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-36.047835522659284,174.55225521790294</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>-36.04777392370791,174.5531104515369</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-36.0465852223787,174.54637762431767</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-36.046942671815756,174.54715621658434</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-36.04721475826979,174.5479633825532</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-36.0474632304409,174.54878524482368</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-36.04759619803474,174.54965769449993</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-36.047719630783526,174.5505306364578</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-36.047881639193,174.55139343417608</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>-36.04787500166148,174.55225487129727</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>-36.047812350433,174.55311466303732</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0110/nzd0110.xlsx
+++ b/data/nzd0110/nzd0110.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20254,7 +20254,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>-36.047834170638666,174.552255229773</t>
+          <t>-36.04783417063866,174.552255229773</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -25231,7 +25231,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>-36.047834170638666,174.552255229773</t>
+          <t>-36.04783417063866,174.552255229773</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">

--- a/data/nzd0110/nzd0110.xlsx
+++ b/data/nzd0110/nzd0110.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K317"/>
+  <dimension ref="A1:K318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12072,6 +12072,45 @@
       <c r="K317" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>389.34</v>
+      </c>
+      <c r="C318" t="n">
+        <v>390.6536363636364</v>
+      </c>
+      <c r="D318" t="n">
+        <v>392.2336363636364</v>
+      </c>
+      <c r="E318" t="n">
+        <v>388.06</v>
+      </c>
+      <c r="F318" t="n">
+        <v>387.6736363636364</v>
+      </c>
+      <c r="G318" t="n">
+        <v>382.66</v>
+      </c>
+      <c r="H318" t="n">
+        <v>388.05</v>
+      </c>
+      <c r="I318" t="n">
+        <v>397.83</v>
+      </c>
+      <c r="J318" t="n">
+        <v>395.94</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12086,7 +12125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B438"/>
+  <dimension ref="A1:B440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16474,6 +16513,26 @@
       </c>
       <c r="B438" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -16647,28 +16706,28 @@
         <v>0.0641</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2086995906870593</v>
+        <v>0.2064746455102522</v>
       </c>
       <c r="J2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K2" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03557818552721237</v>
+        <v>0.03509764341320765</v>
       </c>
       <c r="M2" t="n">
-        <v>6.199822708172141</v>
+        <v>6.188388319944064</v>
       </c>
       <c r="N2" t="n">
-        <v>63.25560673196263</v>
+        <v>63.05238358344297</v>
       </c>
       <c r="O2" t="n">
-        <v>7.953339344700604</v>
+        <v>7.940553103118382</v>
       </c>
       <c r="P2" t="n">
-        <v>386.9764638825105</v>
+        <v>386.9989522767183</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16725,28 +16784,28 @@
         <v>0.0613</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1420872308314371</v>
+        <v>0.1442512966280432</v>
       </c>
       <c r="J3" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K3" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01488116814672091</v>
+        <v>0.01543907734202943</v>
       </c>
       <c r="M3" t="n">
-        <v>6.632454540326905</v>
+        <v>6.620241993949708</v>
       </c>
       <c r="N3" t="n">
-        <v>73.03823421237999</v>
+        <v>72.80436227338649</v>
       </c>
       <c r="O3" t="n">
-        <v>8.546240940459144</v>
+        <v>8.532547232414625</v>
       </c>
       <c r="P3" t="n">
-        <v>383.9418498406371</v>
+        <v>383.9202363173258</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16803,28 +16862,28 @@
         <v>0.0602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03570348091793944</v>
+        <v>0.03764681264551881</v>
       </c>
       <c r="J4" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K4" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008779626062831447</v>
+        <v>0.0009832236839926178</v>
       </c>
       <c r="M4" t="n">
-        <v>6.483409619426808</v>
+        <v>6.470225606495406</v>
       </c>
       <c r="N4" t="n">
-        <v>78.82566910480917</v>
+        <v>78.56783241078223</v>
       </c>
       <c r="O4" t="n">
-        <v>8.878382122031534</v>
+        <v>8.863849751139863</v>
       </c>
       <c r="P4" t="n">
-        <v>388.576608243582</v>
+        <v>388.5572452811269</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16881,28 +16940,28 @@
         <v>0.0635</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05181842887517948</v>
+        <v>0.05195408002349107</v>
       </c>
       <c r="J5" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K5" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002223831066886062</v>
+        <v>0.002252004175857247</v>
       </c>
       <c r="M5" t="n">
-        <v>6.160972528508915</v>
+        <v>6.140160699864103</v>
       </c>
       <c r="N5" t="n">
-        <v>65.53434249853825</v>
+        <v>65.30533690209634</v>
       </c>
       <c r="O5" t="n">
-        <v>8.095328436730547</v>
+        <v>8.08117175303782</v>
       </c>
       <c r="P5" t="n">
-        <v>386.5262368250809</v>
+        <v>386.5248839272908</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16959,28 +17018,28 @@
         <v>0.058</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.065212049299658</v>
+        <v>-0.06322543948291651</v>
       </c>
       <c r="J6" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K6" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004025369755075836</v>
+        <v>0.003812202642834328</v>
       </c>
       <c r="M6" t="n">
-        <v>5.906428199099888</v>
+        <v>5.893973440176361</v>
       </c>
       <c r="N6" t="n">
-        <v>56.76700345454506</v>
+        <v>56.59178906205783</v>
       </c>
       <c r="O6" t="n">
-        <v>7.53438806105347</v>
+        <v>7.522751428969179</v>
       </c>
       <c r="P6" t="n">
-        <v>386.5628819221423</v>
+        <v>386.5430821121343</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17037,28 +17096,28 @@
         <v>0.0411</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04606504749364792</v>
+        <v>0.0422354355469848</v>
       </c>
       <c r="J7" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001746403281396303</v>
+        <v>0.001478001557258413</v>
       </c>
       <c r="M7" t="n">
-        <v>6.323841380667479</v>
+        <v>6.318674568066378</v>
       </c>
       <c r="N7" t="n">
-        <v>65.85051366090009</v>
+        <v>65.71352354140976</v>
       </c>
       <c r="O7" t="n">
-        <v>8.114832941034591</v>
+        <v>8.106387823279229</v>
       </c>
       <c r="P7" t="n">
-        <v>386.7725201080972</v>
+        <v>386.8102349128612</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17115,28 +17174,28 @@
         <v>0.0542</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2523238806489906</v>
+        <v>-0.2499058195970267</v>
       </c>
       <c r="J8" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K8" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06293370680781341</v>
+        <v>0.06224257846754866</v>
       </c>
       <c r="M8" t="n">
-        <v>5.610998825772777</v>
+        <v>5.600855176572649</v>
       </c>
       <c r="N8" t="n">
-        <v>50.83706270718675</v>
+        <v>50.68895727726401</v>
       </c>
       <c r="O8" t="n">
-        <v>7.130011410032017</v>
+        <v>7.11961777606523</v>
       </c>
       <c r="P8" t="n">
-        <v>391.3099922396582</v>
+        <v>391.2860425066336</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17193,28 +17252,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2687265510670346</v>
+        <v>-0.2633600816256801</v>
       </c>
       <c r="J9" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K9" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06677784423936717</v>
+        <v>0.06458680645422366</v>
       </c>
       <c r="M9" t="n">
-        <v>5.386678601967919</v>
+        <v>5.389895069055922</v>
       </c>
       <c r="N9" t="n">
-        <v>53.66917294175707</v>
+        <v>53.66346659554126</v>
       </c>
       <c r="O9" t="n">
-        <v>7.325924715812815</v>
+        <v>7.325535242938994</v>
       </c>
       <c r="P9" t="n">
-        <v>397.4978463762083</v>
+        <v>397.4444113327567</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17271,28 +17330,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4225749141635066</v>
+        <v>-0.4212494328409901</v>
       </c>
       <c r="J10" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K10" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1321475348609741</v>
+        <v>0.1323841505303347</v>
       </c>
       <c r="M10" t="n">
-        <v>5.923204471915085</v>
+        <v>5.907320507311506</v>
       </c>
       <c r="N10" t="n">
-        <v>60.98617758140014</v>
+        <v>60.77186431444019</v>
       </c>
       <c r="O10" t="n">
-        <v>7.809364736097306</v>
+        <v>7.79563110430709</v>
       </c>
       <c r="P10" t="n">
-        <v>405.1182896994869</v>
+        <v>405.1049524741104</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17330,7 +17389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K317"/>
+  <dimension ref="A1:K318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33923,6 +33982,63 @@
         </is>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-36.04659616170093,174.54637123240096</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-36.046900975575014,174.54717932319795</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-36.0471704650599,174.54798301826318</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-36.04741342894088,174.54880153380947</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-36.04758745993588,174.5496600679459</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-36.04778414401763,174.5505164794297</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-36.04784971595574,174.5513984193654</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-36.04784219262771,174.55225515934399</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>-36.04780418026486,174.55311376760108</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0110/nzd0110.xlsx
+++ b/data/nzd0110/nzd0110.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K318"/>
+  <dimension ref="A1:K321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12111,6 +12111,123 @@
       <c r="K318" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>384.0466666666667</v>
+      </c>
+      <c r="C319" t="n">
+        <v>382.39</v>
+      </c>
+      <c r="D319" t="n">
+        <v>393.89</v>
+      </c>
+      <c r="E319" t="n">
+        <v>391.6266666666667</v>
+      </c>
+      <c r="F319" t="n">
+        <v>385.1</v>
+      </c>
+      <c r="G319" t="n">
+        <v>391.17</v>
+      </c>
+      <c r="H319" t="n">
+        <v>396.68</v>
+      </c>
+      <c r="I319" t="n">
+        <v>391.89</v>
+      </c>
+      <c r="J319" t="n">
+        <v>398.19</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>388.7433333333333</v>
+      </c>
+      <c r="C320" t="n">
+        <v>377.7245454545454</v>
+      </c>
+      <c r="D320" t="n">
+        <v>387.7645454545454</v>
+      </c>
+      <c r="E320" t="n">
+        <v>384.2633333333333</v>
+      </c>
+      <c r="F320" t="n">
+        <v>383.4845454545454</v>
+      </c>
+      <c r="G320" t="n">
+        <v>394.38</v>
+      </c>
+      <c r="H320" t="n">
+        <v>384.33</v>
+      </c>
+      <c r="I320" t="n">
+        <v>388.17</v>
+      </c>
+      <c r="J320" t="n">
+        <v>387.07</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>383.8666666666667</v>
+      </c>
+      <c r="C321" t="n">
+        <v>382.5190909090909</v>
+      </c>
+      <c r="D321" t="n">
+        <v>387.4090909090909</v>
+      </c>
+      <c r="E321" t="n">
+        <v>386.9366666666667</v>
+      </c>
+      <c r="F321" t="n">
+        <v>380.889090909091</v>
+      </c>
+      <c r="G321" t="n">
+        <v>381.96</v>
+      </c>
+      <c r="H321" t="n">
+        <v>388.65</v>
+      </c>
+      <c r="I321" t="n">
+        <v>382.48</v>
+      </c>
+      <c r="J321" t="n">
+        <v>392.64</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B440"/>
+  <dimension ref="A1:B443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16533,6 +16650,36 @@
       </c>
       <c r="B440" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -16706,28 +16853,28 @@
         <v>0.0641</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2064746455102522</v>
+        <v>0.1916907176507009</v>
       </c>
       <c r="J2" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K2" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03509764341320765</v>
+        <v>0.03083900430099251</v>
       </c>
       <c r="M2" t="n">
-        <v>6.188388319944064</v>
+        <v>6.195857494057416</v>
       </c>
       <c r="N2" t="n">
-        <v>63.05238358344297</v>
+        <v>62.90546263535045</v>
       </c>
       <c r="O2" t="n">
-        <v>7.940553103118382</v>
+        <v>7.931296403196041</v>
       </c>
       <c r="P2" t="n">
-        <v>386.9989522767183</v>
+        <v>387.1496021446968</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16784,28 +16931,28 @@
         <v>0.0613</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1442512966280432</v>
+        <v>0.1300506021073076</v>
       </c>
       <c r="J3" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K3" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01543907734202943</v>
+        <v>0.01277849723093083</v>
       </c>
       <c r="M3" t="n">
-        <v>6.620241993949708</v>
+        <v>6.614797094147484</v>
       </c>
       <c r="N3" t="n">
-        <v>72.80436227338649</v>
+        <v>72.55103687692355</v>
       </c>
       <c r="O3" t="n">
-        <v>8.532547232414625</v>
+        <v>8.517689644318086</v>
       </c>
       <c r="P3" t="n">
-        <v>383.9202363173258</v>
+        <v>384.0632525287856</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16862,28 +17009,28 @@
         <v>0.0602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03764681264551881</v>
+        <v>0.03795895226223483</v>
       </c>
       <c r="J4" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K4" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0009832236839926178</v>
+        <v>0.001021659689839249</v>
       </c>
       <c r="M4" t="n">
-        <v>6.470225606495406</v>
+        <v>6.430447262669525</v>
       </c>
       <c r="N4" t="n">
-        <v>78.56783241078223</v>
+        <v>77.82113790406278</v>
       </c>
       <c r="O4" t="n">
-        <v>8.863849751139863</v>
+        <v>8.821628982453454</v>
       </c>
       <c r="P4" t="n">
-        <v>388.5572452811269</v>
+        <v>388.5541566881336</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16940,28 +17087,28 @@
         <v>0.0635</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05195408002349107</v>
+        <v>0.0514127186517284</v>
       </c>
       <c r="J5" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K5" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002252004175857247</v>
+        <v>0.002251569891780436</v>
       </c>
       <c r="M5" t="n">
-        <v>6.140160699864103</v>
+        <v>6.104972259424684</v>
       </c>
       <c r="N5" t="n">
-        <v>65.30533690209634</v>
+        <v>64.72431537456384</v>
       </c>
       <c r="O5" t="n">
-        <v>8.08117175303782</v>
+        <v>8.045142346445079</v>
       </c>
       <c r="P5" t="n">
-        <v>386.5248839272908</v>
+        <v>386.5303606201355</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17018,28 +17165,28 @@
         <v>0.058</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06322543948291651</v>
+        <v>-0.06688891819016134</v>
       </c>
       <c r="J6" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K6" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003812202642834328</v>
+        <v>0.004359929694247811</v>
       </c>
       <c r="M6" t="n">
-        <v>5.893973440176361</v>
+        <v>5.853641207420266</v>
       </c>
       <c r="N6" t="n">
-        <v>56.59178906205783</v>
+        <v>56.05490026287679</v>
       </c>
       <c r="O6" t="n">
-        <v>7.522751428969179</v>
+        <v>7.486982053062287</v>
       </c>
       <c r="P6" t="n">
-        <v>386.5430821121343</v>
+        <v>386.5799183927845</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17096,28 +17243,28 @@
         <v>0.0411</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0422354355469848</v>
+        <v>0.04491035101553227</v>
       </c>
       <c r="J7" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K7" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001478001557258413</v>
+        <v>0.001703095405051536</v>
       </c>
       <c r="M7" t="n">
-        <v>6.318674568066378</v>
+        <v>6.307899277478759</v>
       </c>
       <c r="N7" t="n">
-        <v>65.71352354140976</v>
+        <v>65.32431404376966</v>
       </c>
       <c r="O7" t="n">
-        <v>8.106387823279229</v>
+        <v>8.082345825549019</v>
       </c>
       <c r="P7" t="n">
-        <v>386.8102349128612</v>
+        <v>386.7837473383819</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17174,28 +17321,28 @@
         <v>0.0542</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2499058195970267</v>
+        <v>-0.2387678133072542</v>
       </c>
       <c r="J8" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K8" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06224257846754866</v>
+        <v>0.05786960295042365</v>
       </c>
       <c r="M8" t="n">
-        <v>5.600855176572649</v>
+        <v>5.592099480589747</v>
       </c>
       <c r="N8" t="n">
-        <v>50.68895727726401</v>
+        <v>50.69372494691112</v>
       </c>
       <c r="O8" t="n">
-        <v>7.11961777606523</v>
+        <v>7.11995259442864</v>
       </c>
       <c r="P8" t="n">
-        <v>391.2860425066336</v>
+        <v>391.1749221559422</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17252,28 +17399,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2633600816256801</v>
+        <v>-0.2701069384043802</v>
       </c>
       <c r="J9" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K9" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06458680645422366</v>
+        <v>0.06895935863939251</v>
       </c>
       <c r="M9" t="n">
-        <v>5.389895069055922</v>
+        <v>5.378408491557317</v>
       </c>
       <c r="N9" t="n">
-        <v>53.66346659554126</v>
+        <v>53.34765276760967</v>
       </c>
       <c r="O9" t="n">
-        <v>7.325535242938994</v>
+        <v>7.303947752250811</v>
       </c>
       <c r="P9" t="n">
-        <v>397.4444113327567</v>
+        <v>397.5121775420918</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17330,28 +17477,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4212494328409901</v>
+        <v>-0.4247501149181109</v>
       </c>
       <c r="J10" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K10" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1323841505303347</v>
+        <v>0.136805505775184</v>
       </c>
       <c r="M10" t="n">
-        <v>5.907320507311506</v>
+        <v>5.889497919940919</v>
       </c>
       <c r="N10" t="n">
-        <v>60.77186431444019</v>
+        <v>60.35672388075848</v>
       </c>
       <c r="O10" t="n">
-        <v>7.79563110430709</v>
+        <v>7.768958995950389</v>
       </c>
       <c r="P10" t="n">
-        <v>405.1049524741104</v>
+        <v>405.1404806881587</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17389,7 +17536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K318"/>
+  <dimension ref="A1:K321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34039,6 +34186,177 @@
         </is>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-36.046639267513505,174.54634604537728</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-36.046968900094114,174.54714168176685</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-36.047156417674,174.54798924563272</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-36.04738235745,174.5488116966071</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-36.047610113377054,174.549653914808</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-36.04770862715058,174.55053305113447</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-36.047772545776034,174.5514104703826</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>-36.04789573264426,174.5522546892899</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>-36.04778397929957,174.5531115536113</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-36.046601020605756,174.54636839331081</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-36.04700724867364,174.5471204302732</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-36.047208366786776,174.54796621597552</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-36.04744650410643,174.54879071564554</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-36.0476243327923,174.5496500525223</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-36.04768014193921,174.5505393020285</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-36.04788298050549,174.55139322471427</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>-36.04792926275541,174.55225439491295</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>-36.04788381695781,174.5531224956536</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-36.046640733328196,174.54634518889114</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-36.0469678390071,174.5471422697853</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-36.04721138134631,174.5479648795846</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-36.047423215008386,174.54879833300154</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-36.0476471782791,174.54964384721532</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-36.04779035574572,174.55051511630344</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-36.04784435070576,174.55139925721198</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>-36.04798054940358,174.55225394464338</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>-36.047833808347036,174.55311701478846</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0110/nzd0110.xlsx
+++ b/data/nzd0110/nzd0110.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K321"/>
+  <dimension ref="A1:K322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12226,6 +12226,33 @@
         <v>392.64</v>
       </c>
       <c r="K321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>370.19</v>
+      </c>
+      <c r="C322" t="n">
+        <v>370.7681818181818</v>
+      </c>
+      <c r="D322" t="n">
+        <v>375.1881818181818</v>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12242,7 +12269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B443"/>
+  <dimension ref="A1:B444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16680,6 +16707,16 @@
       </c>
       <c r="B443" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>-0.78</v>
       </c>
     </row>
   </sheetData>
@@ -16853,28 +16890,28 @@
         <v>0.0641</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1916907176507009</v>
+        <v>0.1758132508901334</v>
       </c>
       <c r="J2" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03083900430099251</v>
+        <v>0.02557000936888998</v>
       </c>
       <c r="M2" t="n">
-        <v>6.195857494057416</v>
+        <v>6.254015874661255</v>
       </c>
       <c r="N2" t="n">
-        <v>62.90546263535045</v>
+        <v>64.43180993867256</v>
       </c>
       <c r="O2" t="n">
-        <v>7.931296403196041</v>
+        <v>8.026942751675294</v>
       </c>
       <c r="P2" t="n">
-        <v>387.1496021446968</v>
+        <v>387.3122203963191</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16931,28 +16968,28 @@
         <v>0.0613</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1300506021073076</v>
+        <v>0.1184240393249241</v>
       </c>
       <c r="J3" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K3" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01277849723093083</v>
+        <v>0.01055509798414778</v>
       </c>
       <c r="M3" t="n">
-        <v>6.614797094147484</v>
+        <v>6.644966709703304</v>
       </c>
       <c r="N3" t="n">
-        <v>72.55103687692355</v>
+        <v>73.28294202782719</v>
       </c>
       <c r="O3" t="n">
-        <v>8.517689644318086</v>
+        <v>8.560545661803761</v>
       </c>
       <c r="P3" t="n">
-        <v>384.0632525287856</v>
+        <v>384.180957685128</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17009,28 +17046,28 @@
         <v>0.0602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03795895226223483</v>
+        <v>0.02795435873463703</v>
       </c>
       <c r="J4" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K4" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001021659689839249</v>
+        <v>0.0005534130151835237</v>
       </c>
       <c r="M4" t="n">
-        <v>6.430447262669525</v>
+        <v>6.456499711504549</v>
       </c>
       <c r="N4" t="n">
-        <v>77.82113790406278</v>
+        <v>78.26940017244073</v>
       </c>
       <c r="O4" t="n">
-        <v>8.821628982453454</v>
+        <v>8.846999501098704</v>
       </c>
       <c r="P4" t="n">
-        <v>388.5541566881336</v>
+        <v>388.6551720423064</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17090,7 +17127,7 @@
         <v>0.0514127186517284</v>
       </c>
       <c r="J5" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K5" t="n">
         <v>289</v>
@@ -17168,7 +17205,7 @@
         <v>-0.06688891819016134</v>
       </c>
       <c r="J6" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K6" t="n">
         <v>283</v>
@@ -17246,7 +17283,7 @@
         <v>0.04491035101553227</v>
       </c>
       <c r="J7" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K7" t="n">
         <v>281</v>
@@ -17324,7 +17361,7 @@
         <v>-0.2387678133072542</v>
       </c>
       <c r="J8" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K8" t="n">
         <v>276</v>
@@ -17402,7 +17439,7 @@
         <v>-0.2701069384043802</v>
       </c>
       <c r="J9" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K9" t="n">
         <v>280</v>
@@ -17480,7 +17517,7 @@
         <v>-0.4247501149181109</v>
       </c>
       <c r="J10" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K10" t="n">
         <v>274</v>
@@ -17536,7 +17573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K321"/>
+  <dimension ref="A1:K322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34357,6 +34394,39 @@
         </is>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-36.0467521080839,174.54628011171306</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-36.04706442780405,174.5470887434804</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-36.047315025133315,174.54791893296957</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0110/nzd0110.xlsx
+++ b/data/nzd0110/nzd0110.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K322"/>
+  <dimension ref="A1:K324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12253,6 +12253,84 @@
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>376.3833333333333</v>
+      </c>
+      <c r="C323" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="D323" t="n">
+        <v>381.89</v>
+      </c>
+      <c r="E323" t="n">
+        <v>380.8933333333333</v>
+      </c>
+      <c r="F323" t="n">
+        <v>383.54</v>
+      </c>
+      <c r="G323" t="n">
+        <v>390.66</v>
+      </c>
+      <c r="H323" t="n">
+        <v>383.53</v>
+      </c>
+      <c r="I323" t="n">
+        <v>389.04</v>
+      </c>
+      <c r="J323" t="n">
+        <v>391.78</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>379.4033333333333</v>
+      </c>
+      <c r="C324" t="n">
+        <v>373.4318181818182</v>
+      </c>
+      <c r="D324" t="n">
+        <v>385.7318181818182</v>
+      </c>
+      <c r="E324" t="n">
+        <v>380.3133333333333</v>
+      </c>
+      <c r="F324" t="n">
+        <v>377.5118181818182</v>
+      </c>
+      <c r="G324" t="n">
+        <v>377.03</v>
+      </c>
+      <c r="H324" t="n">
+        <v>384.57</v>
+      </c>
+      <c r="I324" t="n">
+        <v>388.58</v>
+      </c>
+      <c r="J324" t="n">
+        <v>390.64</v>
+      </c>
+      <c r="K324" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12269,7 +12347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B444"/>
+  <dimension ref="A1:B446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16717,6 +16795,26 @@
       </c>
       <c r="B444" t="n">
         <v>-0.78</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>-0.76</v>
       </c>
     </row>
   </sheetData>
@@ -17573,7 +17671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K322"/>
+  <dimension ref="A1:K324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34427,6 +34525,120 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-36.04670167321202,174.54630958124457</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-36.04701567011689,174.5471157633895</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-36.047258187971195,174.54794412962502</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-36.047475862307905,174.54878111321193</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-36.04762384467506,174.549650185105</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-36.04771315283833,174.5505320580014</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-36.047890134172064,174.5513921075845</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>-36.04792142103589,174.55225446375914</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>-36.04784152960476,174.55311786102564</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-36.04667708010195,174.54632395119657</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-36.04704253354829,174.54710087656235</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-36.04722560605806,174.54795857359545</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-36.04748091505468,174.5487794605669</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-36.04767690541818,174.54963577270402</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-36.04783410405878,174.55050551599444</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-36.047880834405525,174.55139355985315</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-36.04792556723242,174.55225442735772</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>-36.04785176476033,174.5531189827822</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0110/nzd0110.xlsx
+++ b/data/nzd0110/nzd0110.xlsx
@@ -16988,28 +16988,28 @@
         <v>0.0641</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1758132508901334</v>
+        <v>0.1559512390295447</v>
       </c>
       <c r="J2" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K2" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02557000936888998</v>
+        <v>0.02009844603409239</v>
       </c>
       <c r="M2" t="n">
-        <v>6.254015874661255</v>
+        <v>6.312351249752338</v>
       </c>
       <c r="N2" t="n">
-        <v>64.43180993867256</v>
+        <v>65.38151937749689</v>
       </c>
       <c r="O2" t="n">
-        <v>8.026942751675294</v>
+        <v>8.085883957706596</v>
       </c>
       <c r="P2" t="n">
-        <v>387.3122203963191</v>
+        <v>387.5159470091044</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17066,28 +17066,28 @@
         <v>0.0613</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1184240393249241</v>
+        <v>0.1017315153606562</v>
       </c>
       <c r="J3" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K3" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01055509798414778</v>
+        <v>0.007813552333033713</v>
       </c>
       <c r="M3" t="n">
-        <v>6.644966709703304</v>
+        <v>6.67478699744125</v>
       </c>
       <c r="N3" t="n">
-        <v>73.28294202782719</v>
+        <v>73.8214111067719</v>
       </c>
       <c r="O3" t="n">
-        <v>8.560545661803761</v>
+        <v>8.591938728062015</v>
       </c>
       <c r="P3" t="n">
-        <v>384.180957685128</v>
+        <v>384.3502249217132</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17144,28 +17144,28 @@
         <v>0.0602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02795435873463703</v>
+        <v>0.02033483215951323</v>
       </c>
       <c r="J4" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K4" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005534130151835237</v>
+        <v>0.0002964271905284699</v>
       </c>
       <c r="M4" t="n">
-        <v>6.456499711504549</v>
+        <v>6.449396368048708</v>
       </c>
       <c r="N4" t="n">
-        <v>78.26940017244073</v>
+        <v>77.95708707947871</v>
       </c>
       <c r="O4" t="n">
-        <v>8.846999501098704</v>
+        <v>8.829331066365034</v>
       </c>
       <c r="P4" t="n">
-        <v>388.6551720423064</v>
+        <v>388.7322092163042</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17222,28 +17222,28 @@
         <v>0.0635</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0514127186517284</v>
+        <v>0.04169292970529852</v>
       </c>
       <c r="J5" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K5" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002251569891780436</v>
+        <v>0.001495484645734568</v>
       </c>
       <c r="M5" t="n">
-        <v>6.104972259424684</v>
+        <v>6.109199579069787</v>
       </c>
       <c r="N5" t="n">
-        <v>64.72431537456384</v>
+        <v>64.63542374786047</v>
       </c>
       <c r="O5" t="n">
-        <v>8.045142346445079</v>
+        <v>8.039615895542552</v>
       </c>
       <c r="P5" t="n">
-        <v>386.5303606201355</v>
+        <v>386.6287510168258</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17300,28 +17300,28 @@
         <v>0.058</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06688891819016134</v>
+        <v>-0.07286009447656216</v>
       </c>
       <c r="J6" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K6" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004359929694247811</v>
+        <v>0.005230539680394442</v>
       </c>
       <c r="M6" t="n">
-        <v>5.853641207420266</v>
+        <v>5.845903950653308</v>
       </c>
       <c r="N6" t="n">
-        <v>56.05490026287679</v>
+        <v>55.85262917287298</v>
       </c>
       <c r="O6" t="n">
-        <v>7.486982053062287</v>
+        <v>7.473461659289688</v>
       </c>
       <c r="P6" t="n">
-        <v>386.5799183927845</v>
+        <v>386.6403217238282</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17378,28 +17378,28 @@
         <v>0.0411</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04491035101553227</v>
+        <v>0.03912922323722597</v>
       </c>
       <c r="J7" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K7" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001703095405051536</v>
+        <v>0.001304986973271527</v>
       </c>
       <c r="M7" t="n">
-        <v>6.307899277478759</v>
+        <v>6.309665666516834</v>
       </c>
       <c r="N7" t="n">
-        <v>65.32431404376966</v>
+        <v>65.30765066917363</v>
       </c>
       <c r="O7" t="n">
-        <v>8.082345825549019</v>
+        <v>8.081314909664988</v>
       </c>
       <c r="P7" t="n">
-        <v>386.7837473383819</v>
+        <v>386.8415522684937</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17456,28 +17456,28 @@
         <v>0.0542</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2387678133072542</v>
+        <v>-0.2400592240532307</v>
       </c>
       <c r="J8" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K8" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05786960295042365</v>
+        <v>0.05935368270497055</v>
       </c>
       <c r="M8" t="n">
-        <v>5.592099480589747</v>
+        <v>5.558903486926379</v>
       </c>
       <c r="N8" t="n">
-        <v>50.69372494691112</v>
+        <v>50.33660027966353</v>
       </c>
       <c r="O8" t="n">
-        <v>7.11995259442864</v>
+        <v>7.094829122654296</v>
       </c>
       <c r="P8" t="n">
-        <v>391.1749221559422</v>
+        <v>391.1878908589144</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17534,28 +17534,28 @@
         <v>0.0518</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2701069384043802</v>
+        <v>-0.2724797196597503</v>
       </c>
       <c r="J9" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K9" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06895935863939251</v>
+        <v>0.07112434081006991</v>
       </c>
       <c r="M9" t="n">
-        <v>5.378408491557317</v>
+        <v>5.353102625209745</v>
       </c>
       <c r="N9" t="n">
-        <v>53.34765276760967</v>
+        <v>52.98860324779002</v>
       </c>
       <c r="O9" t="n">
-        <v>7.303947752250811</v>
+        <v>7.279327115042298</v>
       </c>
       <c r="P9" t="n">
-        <v>397.5121775420918</v>
+        <v>397.5361375199563</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17612,28 +17612,28 @@
         <v>0.0421</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4247501149181109</v>
+        <v>-0.4290102646911917</v>
       </c>
       <c r="J10" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K10" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L10" t="n">
-        <v>0.136805505775184</v>
+        <v>0.1410854371098056</v>
       </c>
       <c r="M10" t="n">
-        <v>5.889497919940919</v>
+        <v>5.867871042961867</v>
       </c>
       <c r="N10" t="n">
-        <v>60.35672388075848</v>
+        <v>59.97895666488253</v>
       </c>
       <c r="O10" t="n">
-        <v>7.768958995950389</v>
+        <v>7.744608231852824</v>
       </c>
       <c r="P10" t="n">
-        <v>405.1404806881587</v>
+        <v>405.1839344204289</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0110/nzd0110.xlsx
+++ b/data/nzd0110/nzd0110.xlsx
@@ -16979,13 +16979,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.115</v>
       </c>
       <c r="G2" t="n">
-        <v>0.058</v>
+        <v>0.0726</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0641</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>0.1559283906827709</v>
@@ -17057,13 +17057,13 @@
         <v>0.1250839899087693</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0538</v>
+        <v>0.0595</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0613</v>
+        <v>0.1069</v>
       </c>
       <c r="I3" t="n">
         <v>0.1017242518304054</v>
@@ -17138,10 +17138,10 @@
         <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0526</v>
+        <v>0.049</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0602</v>
+        <v>0.0603</v>
       </c>
       <c r="I4" t="n">
         <v>0.02033690057535932</v>
@@ -17213,13 +17213,13 @@
         <v>0.3749645137670667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0571</v>
+        <v>0.046</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0635</v>
+        <v>0.077</v>
       </c>
       <c r="I5" t="n">
         <v>0.0416845214337606</v>
@@ -17291,13 +17291,13 @@
         <v>0.4999507554468065</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0498</v>
+        <v>0.0462</v>
       </c>
       <c r="H6" t="n">
-        <v>0.058</v>
+        <v>0.0769</v>
       </c>
       <c r="I6" t="n">
         <v>-0.07286496821372096</v>
@@ -17369,13 +17369,13 @@
         <v>0.6250347453598424</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0393</v>
+        <v>0.0394</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0411</v>
+        <v>0.0552</v>
       </c>
       <c r="I7" t="n">
         <v>0.03912922323722597</v>
@@ -17450,10 +17450,10 @@
         <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0477</v>
+        <v>0.0397</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0542</v>
+        <v>0.0612</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2400592240532304</v>
@@ -17528,10 +17528,10 @@
         <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0465</v>
+        <v>0.0406</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0518</v>
+        <v>0.0615</v>
       </c>
       <c r="I9" t="n">
         <v>-0.2724797196597501</v>
@@ -17606,10 +17606,10 @@
         <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0394</v>
+        <v>0.0344</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0421</v>
+        <v>0.0522</v>
       </c>
       <c r="I10" t="n">
         <v>-0.4290102646911917</v>
